--- a/web/uploads/MOCK_DATA.xlsx
+++ b/web/uploads/MOCK_DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17042" uniqueCount="6821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17093" uniqueCount="6821">
   <si>
     <t>inventory_data</t>
   </si>
@@ -20830,10 +20830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1002"/>
+  <dimension ref="A1:Y1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A970" workbookViewId="0">
-      <selection activeCell="O1002" sqref="O1002"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A980" workbookViewId="0">
+      <selection activeCell="A1005" sqref="A1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -97973,7 +97973,8 @@
         <v>34</v>
       </c>
       <c r="K1002">
-        <v>11324</v>
+        <f>11324*2</f>
+        <v>22648</v>
       </c>
       <c r="L1002" t="s">
         <v>35</v>
@@ -98015,6 +98016,240 @@
         <v>40</v>
       </c>
       <c r="Y1002" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1003" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>5819</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1003">
+        <f>11324*3</f>
+        <v>33972</v>
+      </c>
+      <c r="L1003" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1003">
+        <v>24</v>
+      </c>
+      <c r="N1003">
+        <v>2</v>
+      </c>
+      <c r="O1003">
+        <v>2</v>
+      </c>
+      <c r="P1003" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1003">
+        <v>1</v>
+      </c>
+      <c r="R1003" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1003">
+        <v>1</v>
+      </c>
+      <c r="T1003" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1003" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1003">
+        <v>152</v>
+      </c>
+      <c r="W1003">
+        <v>411</v>
+      </c>
+      <c r="X1003" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1003" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1004" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>5819</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1004" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1004">
+        <f>11324*2.5</f>
+        <v>28310</v>
+      </c>
+      <c r="L1004" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1004">
+        <v>24</v>
+      </c>
+      <c r="N1004">
+        <v>2</v>
+      </c>
+      <c r="O1004">
+        <v>2</v>
+      </c>
+      <c r="P1004" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1004">
+        <v>1</v>
+      </c>
+      <c r="R1004" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1004">
+        <v>1</v>
+      </c>
+      <c r="T1004" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1004" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1004">
+        <v>152</v>
+      </c>
+      <c r="W1004">
+        <v>411</v>
+      </c>
+      <c r="X1004" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1004" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1005" t="s">
+        <v>5712</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>5819</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1005">
+        <f>11324*1.5</f>
+        <v>16986</v>
+      </c>
+      <c r="L1005" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1005">
+        <v>24</v>
+      </c>
+      <c r="N1005">
+        <v>2</v>
+      </c>
+      <c r="O1005">
+        <v>2</v>
+      </c>
+      <c r="P1005" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1005">
+        <v>1</v>
+      </c>
+      <c r="R1005" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1005">
+        <v>1</v>
+      </c>
+      <c r="T1005" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1005" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1005">
+        <v>152</v>
+      </c>
+      <c r="W1005">
+        <v>411</v>
+      </c>
+      <c r="X1005" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1005" t="s">
         <v>41</v>
       </c>
     </row>
